--- a/students_room.xlsx
+++ b/students_room.xlsx
@@ -1524,9 +1524,6 @@
     <t>('Шарафутдинов Денис', 402, 7),</t>
   </si>
   <si>
-    <t>('Шагизиганов Урал', , ),</t>
-  </si>
-  <si>
     <t>('9-Б', , ),</t>
   </si>
   <si>
@@ -2020,6 +2017,9 @@
   </si>
   <si>
     <t>('Абдрахимов Тимур Фаритович', 526, 1),</t>
+  </si>
+  <si>
+    <t>('Шагизиганов Урал', 401, 7),</t>
   </si>
 </sst>
 </file>
@@ -2473,8 +2473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E477"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A437" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E477"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2495,10 +2495,10 @@
         <v>329</v>
       </c>
       <c r="D1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -2516,7 +2516,7 @@
         <v>('Абдрахимов Тимур Фаритович', 526, 1),</v>
       </c>
       <c r="E2" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -5911,12 +5911,18 @@
       <c r="A215" s="3" t="s">
         <v>165</v>
       </c>
+      <c r="B215">
+        <v>401</v>
+      </c>
+      <c r="C215">
+        <v>7</v>
+      </c>
       <c r="D215" t="str">
         <f t="shared" si="3"/>
-        <v>('Шагизиганов Урал', , ),</v>
+        <v>('Шагизиганов Урал', 401, 7),</v>
       </c>
       <c r="E215" t="s">
-        <v>495</v>
+        <v>660</v>
       </c>
     </row>
     <row r="216" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -6068,7 +6074,7 @@
         <v>('9-Б', , ),</v>
       </c>
       <c r="E230" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
@@ -6086,7 +6092,7 @@
         <v>('Абуталипов Айрат', 415, 8),</v>
       </c>
       <c r="E231" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
@@ -6104,7 +6110,7 @@
         <v>('Ахмадеев Айсуак', 427, 8),</v>
       </c>
       <c r="E232" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
@@ -6122,7 +6128,7 @@
         <v>('Ахметшин Газизьян', 414, 8),</v>
       </c>
       <c r="E233" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
@@ -6140,7 +6146,7 @@
         <v>('Габидуллин Ильдус', 425, 8),</v>
       </c>
       <c r="E234" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
@@ -6158,7 +6164,7 @@
         <v>('Галиахметов Денислам', 427, 8),</v>
       </c>
       <c r="E235" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
@@ -6176,7 +6182,7 @@
         <v>('Давлетшин Айназ', 413, 8),</v>
       </c>
       <c r="E236" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
@@ -6194,7 +6200,7 @@
         <v>('Зиянбаев Айса', 428, 8),</v>
       </c>
       <c r="E237" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
@@ -6212,7 +6218,7 @@
         <v>('Исхаков Аяз', 415, 8),</v>
       </c>
       <c r="E238" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
@@ -6230,7 +6236,7 @@
         <v>('Мамбетов Азат', 428, 8),</v>
       </c>
       <c r="E239" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
@@ -6248,7 +6254,7 @@
         <v>('Мустаев Чингиз', 425, 8),</v>
       </c>
       <c r="E240" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
@@ -6266,7 +6272,7 @@
         <v>('Надыргулов Сынгиз', 428, 8),</v>
       </c>
       <c r="E241" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
@@ -6284,7 +6290,7 @@
         <v>('Сагинбаев Артур', 413, 8),</v>
       </c>
       <c r="E242" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
@@ -6302,7 +6308,7 @@
         <v>('Сафин Вильдан', 415, 8),</v>
       </c>
       <c r="E243" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
@@ -6320,7 +6326,7 @@
         <v>('Тагиров Айбулат', 427, 8),</v>
       </c>
       <c r="E244" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
@@ -6338,7 +6344,7 @@
         <v>('Узбеков Шамиль', 426, 8),</v>
       </c>
       <c r="E245" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
@@ -6356,7 +6362,7 @@
         <v>('Усманов Нургиз', 426, 8),</v>
       </c>
       <c r="E246" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
@@ -6374,7 +6380,7 @@
         <v>('Хамидов Мурад', 413, 8),</v>
       </c>
       <c r="E247" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
@@ -6392,7 +6398,7 @@
         <v>('Хисаметдинов Руслан', 425, 8),</v>
       </c>
       <c r="E248" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
@@ -6410,7 +6416,7 @@
         <v>('Худайгулов Азат', 426, 8),</v>
       </c>
       <c r="E249" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
@@ -6428,7 +6434,7 @@
         <v>('Юлдыбаев Аскар', 414, 8),</v>
       </c>
       <c r="E250" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="251" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -6560,7 +6566,7 @@
         <v>('9-В', , ),</v>
       </c>
       <c r="E263" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
@@ -6578,7 +6584,7 @@
         <v>('Абдуллин Искандер', 423, 9),</v>
       </c>
       <c r="E264" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
@@ -6596,7 +6602,7 @@
         <v>('Аллаяров Гаян', 424, 9),</v>
       </c>
       <c r="E265" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
@@ -6614,7 +6620,7 @@
         <v>('Баязитов Ильяс', 418, 9),</v>
       </c>
       <c r="E266" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
@@ -6632,7 +6638,7 @@
         <v>('Валитов Азамат', 421, 9),</v>
       </c>
       <c r="E267" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
@@ -6650,7 +6656,7 @@
         <v>('Габитов Айнур', 419, 9),</v>
       </c>
       <c r="E268" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
@@ -6668,7 +6674,7 @@
         <v>('Ильясов Дим', 424, 9),</v>
       </c>
       <c r="E269" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
@@ -6686,7 +6692,7 @@
         <v>('Ишбулатов Газиз', 418, 9),</v>
       </c>
       <c r="E270" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
@@ -6704,7 +6710,7 @@
         <v>('Ишниязов Ренат', 417, 9),</v>
       </c>
       <c r="E271" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
@@ -6722,7 +6728,7 @@
         <v>('Камалетдинов Гаяз', 420, 9),</v>
       </c>
       <c r="E272" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
@@ -6740,7 +6746,7 @@
         <v>('Маликов Ильдар', 424, 9),</v>
       </c>
       <c r="E273" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
@@ -6758,7 +6764,7 @@
         <v>('Мирасов Ямиль', 421, 9),</v>
       </c>
       <c r="E274" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
@@ -6776,7 +6782,7 @@
         <v>('Муратов Зульфат', 420, 9),</v>
       </c>
       <c r="E275" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
@@ -6794,7 +6800,7 @@
         <v>('Сайфуллин Айдар', 422, 9),</v>
       </c>
       <c r="E276" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.25">
@@ -6812,7 +6818,7 @@
         <v>('Ситдиков Рамазан', 417, 9),</v>
       </c>
       <c r="E277" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.25">
@@ -6830,7 +6836,7 @@
         <v>('Сулейманов Айбулат', 417, 9),</v>
       </c>
       <c r="E278" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
@@ -6848,7 +6854,7 @@
         <v>('Сынбулатов Азамат', 423, 9),</v>
       </c>
       <c r="E279" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.25">
@@ -6866,7 +6872,7 @@
         <v>('Хайруллин Вадим', 420, 9),</v>
       </c>
       <c r="E280" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
@@ -6884,7 +6890,7 @@
         <v>('Халимов Айдар', 422, 9),</v>
       </c>
       <c r="E281" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.25">
@@ -6902,7 +6908,7 @@
         <v>('Хусаинов Арслан', 421, 9),</v>
       </c>
       <c r="E282" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.25">
@@ -6920,7 +6926,7 @@
         <v>('Янтурин Нур', 419, 9),</v>
       </c>
       <c r="E283" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="284" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -7052,7 +7058,7 @@
         <v>('10-А', , ),</v>
       </c>
       <c r="E296" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.25">
@@ -7070,7 +7076,7 @@
         <v>('Аккужин Филипп', 0, 10),</v>
       </c>
       <c r="E297" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.25">
@@ -7088,7 +7094,7 @@
         <v>('Ахметгараев Ридаль', 0, 10),</v>
       </c>
       <c r="E298" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.25">
@@ -7106,7 +7112,7 @@
         <v>('Галлямов Айнур', 0, 10),</v>
       </c>
       <c r="E299" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.25">
@@ -7124,7 +7130,7 @@
         <v>('Гарипов Азамат', 0, 10),</v>
       </c>
       <c r="E300" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.25">
@@ -7142,7 +7148,7 @@
         <v>('Гильметдинов Ильнур', 0, 10),</v>
       </c>
       <c r="E301" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.25">
@@ -7160,7 +7166,7 @@
         <v>('Зарипов Ильмир', 0, 10),</v>
       </c>
       <c r="E302" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.25">
@@ -7178,7 +7184,7 @@
         <v>('Игликов Аскар', 0, 10),</v>
       </c>
       <c r="E303" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.25">
@@ -7196,7 +7202,7 @@
         <v>('Исхаков Ильгизар', 0, 10),</v>
       </c>
       <c r="E304" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.25">
@@ -7214,7 +7220,7 @@
         <v>('Ишмухаметов Ильнур', 0, 10),</v>
       </c>
       <c r="E305" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.25">
@@ -7232,7 +7238,7 @@
         <v>('Камалов Азат', 0, 10),</v>
       </c>
       <c r="E306" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.25">
@@ -7250,7 +7256,7 @@
         <v>('Канчурин Вильнур', 0, 10),</v>
       </c>
       <c r="E307" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.25">
@@ -7268,7 +7274,7 @@
         <v>('Каримгулов Альберт', 0, 10),</v>
       </c>
       <c r="E308" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.25">
@@ -7286,7 +7292,7 @@
         <v>('Кусарин Эмиль', 0, 10),</v>
       </c>
       <c r="E309" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.25">
@@ -7304,7 +7310,7 @@
         <v>('Кучугулов Салават', 0, 10),</v>
       </c>
       <c r="E310" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.25">
@@ -7322,7 +7328,7 @@
         <v>('Назаров Вильдан', 0, 10),</v>
       </c>
       <c r="E311" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.25">
@@ -7340,7 +7346,7 @@
         <v>('Рафиков Салимьян', 0, 10),</v>
       </c>
       <c r="E312" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.25">
@@ -7358,7 +7364,7 @@
         <v>('Харрасов Зиннур', 0, 10),</v>
       </c>
       <c r="E313" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.25">
@@ -7376,7 +7382,7 @@
         <v>('Шагивалеев Ришат', 0, 10),</v>
       </c>
       <c r="E314" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.25">
@@ -7394,7 +7400,7 @@
         <v>('Шарафутдинов Идель', 0, 10),</v>
       </c>
       <c r="E315" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.25">
@@ -7412,7 +7418,7 @@
         <v>('Юнусов Расуль', 0, 10),</v>
       </c>
       <c r="E316" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="317" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -7544,7 +7550,7 @@
         <v>('10-Б', , ),</v>
       </c>
       <c r="E329" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.25">
@@ -7562,7 +7568,7 @@
         <v>('Аллабердин Ралиф Раилович', 411, 11),</v>
       </c>
       <c r="E330" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.25">
@@ -7580,7 +7586,7 @@
         <v>('Аслыев Инсаф Ильшатович', 412, 11),</v>
       </c>
       <c r="E331" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.25">
@@ -7598,7 +7604,7 @@
         <v>('Байбулатов Айнур Ильнурович', 225, 11),</v>
       </c>
       <c r="E332" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.25">
@@ -7616,7 +7622,7 @@
         <v>('Басыров Айназ Нажипович', 430, 11),</v>
       </c>
       <c r="E333" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.25">
@@ -7634,7 +7640,7 @@
         <v>('Буляков Нур Зуфарович', 412, 11),</v>
       </c>
       <c r="E334" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.25">
@@ -7652,7 +7658,7 @@
         <v>('Валитов Айрат Мирсаяфович', 412, 11),</v>
       </c>
       <c r="E335" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.25">
@@ -7670,7 +7676,7 @@
         <v>('Габитов Булат Наилевич', 431, 11),</v>
       </c>
       <c r="E336" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.25">
@@ -7688,7 +7694,7 @@
         <v>('Давлетбердин Ялиль Умутбаевич', 409, 11),</v>
       </c>
       <c r="E337" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.25">
@@ -7706,7 +7712,7 @@
         <v>('Зайнуллин Чингиз Ямилевич', 411, 11),</v>
       </c>
       <c r="E338" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.25">
@@ -7724,7 +7730,7 @@
         <v>('Закиров Айдар Альфридович', 429, 11),</v>
       </c>
       <c r="E339" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.25">
@@ -7742,7 +7748,7 @@
         <v>('Ибрагимов Ильяс Римович', 431, 11),</v>
       </c>
       <c r="E340" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.25">
@@ -7760,7 +7766,7 @@
         <v>('Ишкулов Денис Хадисович', 431, 11),</v>
       </c>
       <c r="E341" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.25">
@@ -7778,7 +7784,7 @@
         <v>('Кадыров Амир Ильдарович', 410, 11),</v>
       </c>
       <c r="E342" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.25">
@@ -7796,7 +7802,7 @@
         <v>('Мамбетов Радмир Нурисович', 429, 11),</v>
       </c>
       <c r="E343" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.25">
@@ -7814,7 +7820,7 @@
         <v>('Мулюков Халиль Азатович', 429, 11),</v>
       </c>
       <c r="E344" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.25">
@@ -7832,7 +7838,7 @@
         <v>('Мусаргалин Азат Салаватович', 430, 11),</v>
       </c>
       <c r="E345" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.25">
@@ -7850,7 +7856,7 @@
         <v>('Мухамадиев Ильгиз Азатович', 409, 11),</v>
       </c>
       <c r="E346" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.25">
@@ -7868,7 +7874,7 @@
         <v>('Сафиев Ильяс Филюсович', 430, 11),</v>
       </c>
       <c r="E347" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.25">
@@ -7886,7 +7892,7 @@
         <v>('Сафин Ильдар Наилевич', 410, 11),</v>
       </c>
       <c r="E348" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.25">
@@ -7904,7 +7910,7 @@
         <v>('Умергалин Рузиль Рустамович', 411, 11),</v>
       </c>
       <c r="E349" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.25">
@@ -7922,7 +7928,7 @@
         <v>('Шарипов Рустам Фаритович', 410, 11),</v>
       </c>
       <c r="E350" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.25">
@@ -7940,7 +7946,7 @@
         <v>('Янбаев Ильсур Ильфатович', 409, 11),</v>
       </c>
       <c r="E351" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="352" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -8052,7 +8058,7 @@
         <v>('10-В', , ),</v>
       </c>
       <c r="E362" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.25">
@@ -8070,7 +8076,7 @@
         <v>('Абубакиров Шамиль', 0, 12),</v>
       </c>
       <c r="E363" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.25">
@@ -8088,7 +8094,7 @@
         <v>('Аднасурин Ринат', 0, 12),</v>
       </c>
       <c r="E364" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.25">
@@ -8106,7 +8112,7 @@
         <v>('Амантаев Вильдан', 0, 12),</v>
       </c>
       <c r="E365" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.25">
@@ -8124,7 +8130,7 @@
         <v>('Багаутдинов Анвар', 0, 12),</v>
       </c>
       <c r="E366" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.25">
@@ -8142,7 +8148,7 @@
         <v>('Батыршин Байрас', 0, 12),</v>
       </c>
       <c r="E367" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.25">
@@ -8160,7 +8166,7 @@
         <v>('Буранбаев Тимур', 0, 12),</v>
       </c>
       <c r="E368" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.25">
@@ -8178,7 +8184,7 @@
         <v>('Бухарбаев Шагит', 0, 12),</v>
       </c>
       <c r="E369" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.25">
@@ -8196,7 +8202,7 @@
         <v>('Гайфуллин Ильдар', 0, 12),</v>
       </c>
       <c r="E370" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.25">
@@ -8214,7 +8220,7 @@
         <v>('Гайфуллин Рафис', 0, 12),</v>
       </c>
       <c r="E371" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.25">
@@ -8232,7 +8238,7 @@
         <v>('Гизтдинов Данил', 0, 12),</v>
       </c>
       <c r="E372" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.25">
@@ -8250,7 +8256,7 @@
         <v>('Гильманов Ильшат', 0, 12),</v>
       </c>
       <c r="E373" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.25">
@@ -8268,7 +8274,7 @@
         <v>('Кравцов Растимир', 0, 12),</v>
       </c>
       <c r="E374" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.25">
@@ -8286,7 +8292,7 @@
         <v>('Максутов Зиннат', 0, 12),</v>
       </c>
       <c r="E375" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.25">
@@ -8304,7 +8310,7 @@
         <v>('Мирзаев Камран', 0, 12),</v>
       </c>
       <c r="E376" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.25">
@@ -8322,7 +8328,7 @@
         <v>('Рустанов Айгиз', 0, 12),</v>
       </c>
       <c r="E377" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.25">
@@ -8340,7 +8346,7 @@
         <v>('Сагитов Тагир', 0, 12),</v>
       </c>
       <c r="E378" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.25">
@@ -8358,7 +8364,7 @@
         <v>('Сынгизов Расим', 0, 12),</v>
       </c>
       <c r="E379" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.25">
@@ -8376,7 +8382,7 @@
         <v>('Талхин Азамат', 0, 12),</v>
       </c>
       <c r="E380" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.25">
@@ -8394,7 +8400,7 @@
         <v>('Фаизов Ринат', 0, 12),</v>
       </c>
       <c r="E381" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.25">
@@ -8412,7 +8418,7 @@
         <v>('Ягудин Асгат', 0, 12),</v>
       </c>
       <c r="E382" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="383" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -8544,7 +8550,7 @@
         <v>('11-А', , ),</v>
       </c>
       <c r="E395" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.25">
@@ -8562,7 +8568,7 @@
         <v>('Адельгужин Азамат Салаватович', 201, 13),</v>
       </c>
       <c r="E396" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.25">
@@ -8580,7 +8586,7 @@
         <v>('Афлятунов Идель Ишмурзович', 201, 13),</v>
       </c>
       <c r="E397" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.25">
@@ -8598,7 +8604,7 @@
         <v>('Байчурин Фаяз Ильгизович', 202, 13),</v>
       </c>
       <c r="E398" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.25">
@@ -8616,7 +8622,7 @@
         <v>('Буранбаев Рамазан Мидкатович', 207, 13),</v>
       </c>
       <c r="E399" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.25">
@@ -8634,7 +8640,7 @@
         <v>('Габдуллин Нияз Илнурович', 205, 13),</v>
       </c>
       <c r="E400" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.25">
@@ -8652,7 +8658,7 @@
         <v>('Давлеткужин Ильсур Газизович', 203, 13),</v>
       </c>
       <c r="E401" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.25">
@@ -8670,7 +8676,7 @@
         <v>('Идрисов Идель Фаилович', 205, 13),</v>
       </c>
       <c r="E402" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.25">
@@ -8688,7 +8694,7 @@
         <v>('Каримов Раиль Раитович', 207, 13),</v>
       </c>
       <c r="E403" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.25">
@@ -8706,7 +8712,7 @@
         <v>('Махатов Ильнур Фларисович', 203, 13),</v>
       </c>
       <c r="E404" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.25">
@@ -8724,7 +8730,7 @@
         <v>('Мигранов Ильнар Радикович', 202, 13),</v>
       </c>
       <c r="E405" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.25">
@@ -8742,7 +8748,7 @@
         <v>('Мугтасимов Ринат Рифович', 206, 13),</v>
       </c>
       <c r="E406" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.25">
@@ -8760,7 +8766,7 @@
         <v>('Мутагиров Рустем Айратович', 204, 13),</v>
       </c>
       <c r="E407" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.25">
@@ -8778,7 +8784,7 @@
         <v>('Насипов Рамиль Камалович', -1, 13),</v>
       </c>
       <c r="E408" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.25">
@@ -8796,7 +8802,7 @@
         <v>('Нуриманов Денис Гаязович', 201, 13),</v>
       </c>
       <c r="E409" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.25">
@@ -8814,7 +8820,7 @@
         <v>('Сафин Чингиз Ильшатович', 206, 13),</v>
       </c>
       <c r="E410" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.25">
@@ -8832,7 +8838,7 @@
         <v>('Хажиев Тимур Айсуатович', 204, 13),</v>
       </c>
       <c r="E411" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.25">
@@ -8850,7 +8856,7 @@
         <v>('Шигапов Радмир Римович', 204, 13),</v>
       </c>
       <c r="E412" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.25">
@@ -8868,7 +8874,7 @@
         <v>('Якупов  Айбулат Уралович', 205, 13),</v>
       </c>
       <c r="E413" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="414" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -9020,7 +9026,7 @@
         <v>('11-Б', , ),</v>
       </c>
       <c r="E428" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="429" spans="1:5" x14ac:dyDescent="0.25">
@@ -9038,7 +9044,7 @@
         <v>('Абдуллин Ильмир Салихович', 218, 14),</v>
       </c>
       <c r="E429" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="430" spans="1:5" x14ac:dyDescent="0.25">
@@ -9056,7 +9062,7 @@
         <v>('Адигамов Айгиз Азаматович', 231, 14),</v>
       </c>
       <c r="E430" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="431" spans="1:5" x14ac:dyDescent="0.25">
@@ -9074,7 +9080,7 @@
         <v>('Ахмедьяров Азамат', 227, 14),</v>
       </c>
       <c r="E431" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="432" spans="1:5" x14ac:dyDescent="0.25">
@@ -9092,7 +9098,7 @@
         <v>('Галин Ильназ', 231, 14),</v>
       </c>
       <c r="E432" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="433" spans="1:5" x14ac:dyDescent="0.25">
@@ -9110,7 +9116,7 @@
         <v>('Искужин Шафкат Маратович', 210, 14),</v>
       </c>
       <c r="E433" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="434" spans="1:5" x14ac:dyDescent="0.25">
@@ -9128,7 +9134,7 @@
         <v>('Каипов Айтуган Абрикович', 211, 14),</v>
       </c>
       <c r="E434" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="435" spans="1:5" x14ac:dyDescent="0.25">
@@ -9146,7 +9152,7 @@
         <v>('Каримов Денис', 209, 14),</v>
       </c>
       <c r="E435" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="436" spans="1:5" x14ac:dyDescent="0.25">
@@ -9164,7 +9170,7 @@
         <v>('Кучемханов Батырша', 210, 14),</v>
       </c>
       <c r="E436" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="437" spans="1:5" x14ac:dyDescent="0.25">
@@ -9182,7 +9188,7 @@
         <v>('Муратшин Ильмир Ильшатович', 211, 14),</v>
       </c>
       <c r="E437" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="438" spans="1:5" x14ac:dyDescent="0.25">
@@ -9200,7 +9206,7 @@
         <v>('Хамидуллин Раушан', 212, 14),</v>
       </c>
       <c r="E438" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="439" spans="1:5" x14ac:dyDescent="0.25">
@@ -9218,7 +9224,7 @@
         <v>('Шарипов Анвар Айратович', 210, 14),</v>
       </c>
       <c r="E439" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="440" spans="1:5" x14ac:dyDescent="0.25">
@@ -9236,7 +9242,7 @@
         <v>('Шугаипов Шамиль Данилевич', 231, 14),</v>
       </c>
       <c r="E440" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="441" spans="1:5" x14ac:dyDescent="0.25">
@@ -9254,7 +9260,7 @@
         <v>('Юлдыбаев Ильнур Рахимьянович', 212, 14),</v>
       </c>
       <c r="E441" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="442" spans="1:5" x14ac:dyDescent="0.25">
@@ -9272,7 +9278,7 @@
         <v>('Яхин Вадим Ильфатович', 227, 14),</v>
       </c>
       <c r="E442" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="443" spans="1:5" x14ac:dyDescent="0.25">
@@ -9290,7 +9296,7 @@
         <v>('Насиров Айтуган Зуфарович', 211, 14),</v>
       </c>
       <c r="E443" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="444" spans="1:5" x14ac:dyDescent="0.25">
@@ -9308,7 +9314,7 @@
         <v>('Сальтяшев Рамай Рауфович', 218, 14),</v>
       </c>
       <c r="E444" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="445" spans="1:5" x14ac:dyDescent="0.25">
@@ -9326,7 +9332,7 @@
         <v>('Николаев Денис Анатольевич', 209, 14),</v>
       </c>
       <c r="E445" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="446" spans="1:5" x14ac:dyDescent="0.25">
@@ -9344,7 +9350,7 @@
         <v>('Мухаметьянов Айнур Айдарович', 209, 14),</v>
       </c>
       <c r="E446" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="447" spans="1:5" x14ac:dyDescent="0.25">
@@ -9362,7 +9368,7 @@
         <v>('Каримов Динислам Нурисламович', 212, 14),</v>
       </c>
       <c r="E447" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="448" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -9504,7 +9510,7 @@
         <v>('11-В', , ),</v>
       </c>
       <c r="E461" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="462" spans="1:5" x14ac:dyDescent="0.25">
@@ -9522,7 +9528,7 @@
         <v>('Арсланов Тимур', 0, 15),</v>
       </c>
       <c r="E462" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="463" spans="1:5" x14ac:dyDescent="0.25">
@@ -9540,7 +9546,7 @@
         <v>('Ахметшин Ильяс', 0, 15),</v>
       </c>
       <c r="E463" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="464" spans="1:5" x14ac:dyDescent="0.25">
@@ -9558,7 +9564,7 @@
         <v>('Баймурзин Идель', 0, 15),</v>
       </c>
       <c r="E464" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="465" spans="1:5" x14ac:dyDescent="0.25">
@@ -9576,7 +9582,7 @@
         <v>('Басыров Расуль', 0, 15),</v>
       </c>
       <c r="E465" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="466" spans="1:5" x14ac:dyDescent="0.25">
@@ -9594,7 +9600,7 @@
         <v>('Валитов Ильдар', 0, 15),</v>
       </c>
       <c r="E466" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="467" spans="1:5" x14ac:dyDescent="0.25">
@@ -9612,7 +9618,7 @@
         <v>('Гадельшин Руслан', 0, 15),</v>
       </c>
       <c r="E467" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="468" spans="1:5" x14ac:dyDescent="0.25">
@@ -9630,7 +9636,7 @@
         <v>('Давлетчурин Айнур', 0, 15),</v>
       </c>
       <c r="E468" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="469" spans="1:5" x14ac:dyDescent="0.25">
@@ -9648,7 +9654,7 @@
         <v>('Ермолаев Роберт', 0, 15),</v>
       </c>
       <c r="E469" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="470" spans="1:5" x14ac:dyDescent="0.25">
@@ -9666,7 +9672,7 @@
         <v>('Зайнуллин Загир', 0, 15),</v>
       </c>
       <c r="E470" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="471" spans="1:5" x14ac:dyDescent="0.25">
@@ -9684,7 +9690,7 @@
         <v>('Кулуев Рафаэль', 0, 15),</v>
       </c>
       <c r="E471" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="472" spans="1:5" x14ac:dyDescent="0.25">
@@ -9702,7 +9708,7 @@
         <v>('Мустафин Ильмир', 0, 15),</v>
       </c>
       <c r="E472" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="473" spans="1:5" x14ac:dyDescent="0.25">
@@ -9720,7 +9726,7 @@
         <v>('Мухамадиев Ильнур', 0, 15),</v>
       </c>
       <c r="E473" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="474" spans="1:5" x14ac:dyDescent="0.25">
@@ -9738,7 +9744,7 @@
         <v>('Мухамедьянов Азамат', 0, 15),</v>
       </c>
       <c r="E474" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="475" spans="1:5" x14ac:dyDescent="0.25">
@@ -9756,7 +9762,7 @@
         <v>('Хидиятов Надир', 0, 15),</v>
       </c>
       <c r="E475" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="476" spans="1:5" x14ac:dyDescent="0.25">
@@ -9774,7 +9780,7 @@
         <v>('Хилажев Алик', 0, 15),</v>
       </c>
       <c r="E476" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="477" spans="1:5" x14ac:dyDescent="0.25">
@@ -9792,7 +9798,7 @@
         <v>('Шибанов Никита', 0, 15);</v>
       </c>
       <c r="E477" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
   </sheetData>
